--- a/state_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
+++ b/state_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U292"/>
+  <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0067291895194994</v>
+        <v>0.0067289611686702</v>
       </c>
       <c r="H2" t="n">
         <v>0.035</v>
@@ -651,7 +651,7 @@
         <v>0.006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0067291895194994</v>
+        <v>0.0067289611686702</v>
       </c>
       <c r="H3" t="n">
         <v>0.035</v>
@@ -732,7 +732,7 @@
         <v>0.00759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0084334622260668</v>
+        <v>0.008433307096767701</v>
       </c>
       <c r="H4" t="n">
         <v>0.0305253036313714</v>
@@ -813,7 +813,7 @@
         <v>0.00759</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0084334622260668</v>
+        <v>0.008433307096767701</v>
       </c>
       <c r="H5" t="n">
         <v>0.0305253036313714</v>
@@ -1052,7 +1052,7 @@
         <v>0.2355</v>
       </c>
       <c r="G8" t="n">
-        <v>0.268891304347826</v>
+        <v>0.268847826086957</v>
       </c>
       <c r="H8" t="n">
         <v>1.007</v>
@@ -1063,13 +1063,13 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.1685</v>
+        <v>0.168</v>
       </c>
       <c r="M8" t="n">
-        <v>0.37052</v>
+        <v>0.3707</v>
       </c>
       <c r="N8" t="n">
-        <v>0.47902</v>
+        <v>0.47911</v>
       </c>
       <c r="O8" t="n">
         <v>1836693</v>
@@ -1129,7 +1129,7 @@
         <v>0.2355</v>
       </c>
       <c r="G9" t="n">
-        <v>0.268891304347826</v>
+        <v>0.268847826086957</v>
       </c>
       <c r="H9" t="n">
         <v>1.007</v>
@@ -1140,13 +1140,13 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.1685</v>
+        <v>0.168</v>
       </c>
       <c r="M9" t="n">
-        <v>0.37052</v>
+        <v>0.3707</v>
       </c>
       <c r="N9" t="n">
-        <v>0.47902</v>
+        <v>0.47911</v>
       </c>
       <c r="O9" t="n">
         <v>1836693</v>
@@ -1206,7 +1206,7 @@
         <v>0.0125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0184479164788713</v>
+        <v>0.0184966497767043</v>
       </c>
       <c r="H10" t="n">
         <v>0.08</v>
@@ -1283,7 +1283,7 @@
         <v>0.0125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0184479164788713</v>
+        <v>0.0184966497767043</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
@@ -1364,7 +1364,7 @@
         <v>0.006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0069270470299506</v>
+        <v>0.0069268157039945</v>
       </c>
       <c r="H12" t="n">
         <v>0.035</v>
@@ -1445,7 +1445,7 @@
         <v>0.006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0069270470299506</v>
+        <v>0.0069268157039945</v>
       </c>
       <c r="H13" t="n">
         <v>0.035</v>
@@ -1526,7 +1526,7 @@
         <v>0.00477</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0057760292460359</v>
+        <v>0.0057758310252648</v>
       </c>
       <c r="H14" t="n">
         <v>0.0156347004949434</v>
@@ -1607,7 +1607,7 @@
         <v>0.00477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0057760292460359</v>
+        <v>0.0057758310252648</v>
       </c>
       <c r="H15" t="n">
         <v>0.0156347004949434</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.25</v>
+        <v>0.2505</v>
       </c>
       <c r="G18" t="n">
-        <v>0.292055555555556</v>
+        <v>0.292013888888889</v>
       </c>
       <c r="H18" t="n">
         <v>1.007</v>
@@ -1857,10 +1857,10 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.1835</v>
+        <v>0.183</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4176</v>
+        <v>0.4171</v>
       </c>
       <c r="N18" t="n">
         <v>0.50022</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.25</v>
+        <v>0.2505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.292055555555556</v>
+        <v>0.292013888888889</v>
       </c>
       <c r="H19" t="n">
         <v>1.007</v>
@@ -1934,10 +1934,10 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.1835</v>
+        <v>0.183</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4176</v>
+        <v>0.4171</v>
       </c>
       <c r="N19" t="n">
         <v>0.50022</v>
@@ -2000,7 +2000,7 @@
         <v>0.0125</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0175967310359484</v>
+        <v>0.0176553265758988</v>
       </c>
       <c r="H20" t="n">
         <v>0.08</v>
@@ -2077,7 +2077,7 @@
         <v>0.0125</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0175967310359484</v>
+        <v>0.0176553265758988</v>
       </c>
       <c r="H21" t="n">
         <v>0.08</v>
@@ -2158,7 +2158,7 @@
         <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>2.43864362685247</v>
+        <v>2.43856890250557</v>
       </c>
       <c r="H22" t="n">
         <v>6.3</v>
@@ -2239,7 +2239,7 @@
         <v>0.00825</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0075726966965078</v>
+        <v>0.0075759690418184</v>
       </c>
       <c r="H23" t="n">
         <v>0.017</v>
@@ -2320,7 +2320,7 @@
         <v>0.00825</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0075726966965078</v>
+        <v>0.0075759690418184</v>
       </c>
       <c r="H24" t="n">
         <v>0.017</v>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0026329465917905</v>
+        <v>0.0026296131407727</v>
       </c>
       <c r="H29" t="n">
         <v>0.0211563254107174</v>
@@ -2752,7 +2752,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00059</v>
       </c>
       <c r="M29" t="n">
         <v>0.00408</v>
@@ -2819,10 +2819,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0026329465917905</v>
+        <v>0.0026296131407727</v>
       </c>
       <c r="H30" t="n">
         <v>0.0211563254107174</v>
@@ -2833,7 +2833,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00059</v>
       </c>
       <c r="M30" t="n">
         <v>0.00408</v>
@@ -2903,7 +2903,7 @@
         <v>0.21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.271938187445502</v>
+        <v>0.271880224982566</v>
       </c>
       <c r="H31" t="n">
         <v>1.07</v>
@@ -2984,7 +2984,7 @@
         <v>0.21</v>
       </c>
       <c r="G32" t="n">
-        <v>0.271938187445502</v>
+        <v>0.271880224982566</v>
       </c>
       <c r="H32" t="n">
         <v>1.07</v>
@@ -3061,7 +3061,7 @@
         <v>0.216</v>
       </c>
       <c r="G33" t="n">
-        <v>0.278855463278678</v>
+        <v>0.278827252201719</v>
       </c>
       <c r="H33" t="n">
         <v>1.08</v>
@@ -3072,7 +3072,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.0985</v>
+        <v>0.09875</v>
       </c>
       <c r="M33" t="n">
         <v>0.474</v>
@@ -3138,7 +3138,7 @@
         <v>0.216</v>
       </c>
       <c r="G34" t="n">
-        <v>0.278855463278678</v>
+        <v>0.278827252201719</v>
       </c>
       <c r="H34" t="n">
         <v>1.08</v>
@@ -3149,7 +3149,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.0985</v>
+        <v>0.09875</v>
       </c>
       <c r="M34" t="n">
         <v>0.474</v>
@@ -3219,7 +3219,7 @@
         <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>2.0587653751083</v>
+        <v>2.05812135088261</v>
       </c>
       <c r="H35" t="n">
         <v>6</v>
@@ -3300,7 +3300,7 @@
         <v>0.008</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0085383820156504</v>
+        <v>0.0085444553991604</v>
       </c>
       <c r="H36" t="n">
         <v>0.032</v>
@@ -3381,7 +3381,7 @@
         <v>0.008</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0085383820156504</v>
+        <v>0.0085444553991604</v>
       </c>
       <c r="H37" t="n">
         <v>0.032</v>
@@ -3802,7 +3802,7 @@
         <v>0.00078</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0054458239164012</v>
+        <v>0.0054389368137168</v>
       </c>
       <c r="H42" t="n">
         <v>0.0833484885654411</v>
@@ -3813,7 +3813,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00067</v>
+        <v>0.00066</v>
       </c>
       <c r="M42" t="n">
         <v>0.005</v>
@@ -3883,7 +3883,7 @@
         <v>0.00078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0054458239164012</v>
+        <v>0.0054389368137168</v>
       </c>
       <c r="H43" t="n">
         <v>0.0833484885654411</v>
@@ -3894,7 +3894,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00067</v>
+        <v>0.00066</v>
       </c>
       <c r="M43" t="n">
         <v>0.005</v>
@@ -3960,7 +3960,7 @@
         <v>0.225</v>
       </c>
       <c r="G44" t="n">
-        <v>0.279777777777778</v>
+        <v>0.279827777777778</v>
       </c>
       <c r="H44" t="n">
         <v>1.08</v>
@@ -3977,7 +3977,7 @@
         <v>0.46944</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6113</v>
+        <v>0.61149</v>
       </c>
       <c r="O44" t="n">
         <v>1836693</v>
@@ -4037,7 +4037,7 @@
         <v>0.225</v>
       </c>
       <c r="G45" t="n">
-        <v>0.279777777777778</v>
+        <v>0.279827777777778</v>
       </c>
       <c r="H45" t="n">
         <v>1.08</v>
@@ -4054,7 +4054,7 @@
         <v>0.46944</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6113</v>
+        <v>0.61149</v>
       </c>
       <c r="O45" t="n">
         <v>1836693</v>
@@ -4118,7 +4118,7 @@
         <v>1.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1.97828243540491</v>
+        <v>1.96932906028255</v>
       </c>
       <c r="H46" t="n">
         <v>6</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>3.6355</v>
+        <v>3.5715</v>
       </c>
       <c r="N46" t="n">
         <v>4.718</v>
@@ -4199,7 +4199,7 @@
         <v>0.007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0077292437477685</v>
+        <v>0.0077366608328741</v>
       </c>
       <c r="H47" t="n">
         <v>0.032</v>
@@ -4280,7 +4280,7 @@
         <v>0.007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0077292437477685</v>
+        <v>0.0077366608328741</v>
       </c>
       <c r="H48" t="n">
         <v>0.032</v>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.00143</v>
+        <v>0.00138</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0057264906607811</v>
+        <v>0.0057090518751769</v>
       </c>
       <c r="H53" t="n">
         <v>0.0833484885654411</v>
@@ -4712,10 +4712,10 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.00151</v>
+        <v>0.00146</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0065</v>
+        <v>0.00635</v>
       </c>
       <c r="N53" t="n">
         <v>0.01759</v>
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.00143</v>
+        <v>0.00138</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0057264906607811</v>
+        <v>0.0057090518751769</v>
       </c>
       <c r="H54" t="n">
         <v>0.0833484885654411</v>
@@ -4793,10 +4793,10 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.00151</v>
+        <v>0.00146</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0065</v>
+        <v>0.00635</v>
       </c>
       <c r="N54" t="n">
         <v>0.01759</v>
@@ -4863,7 +4863,7 @@
         <v>0.22</v>
       </c>
       <c r="G55" t="n">
-        <v>0.236230431122724</v>
+        <v>0.236140056508917</v>
       </c>
       <c r="H55" t="n">
         <v>1.07</v>
@@ -4944,7 +4944,7 @@
         <v>0.22</v>
       </c>
       <c r="G56" t="n">
-        <v>0.236230431122724</v>
+        <v>0.236140056508917</v>
       </c>
       <c r="H56" t="n">
         <v>1.07</v>
@@ -5021,7 +5021,7 @@
         <v>0.225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.259145833333333</v>
+        <v>0.259235416666667</v>
       </c>
       <c r="H57" t="n">
         <v>1.08</v>
@@ -5038,7 +5038,7 @@
         <v>0.43372</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5332</v>
+        <v>0.5335299999999999</v>
       </c>
       <c r="O57" t="n">
         <v>1836693</v>
@@ -5098,7 +5098,7 @@
         <v>0.225</v>
       </c>
       <c r="G58" t="n">
-        <v>0.259145833333333</v>
+        <v>0.259235416666667</v>
       </c>
       <c r="H58" t="n">
         <v>1.08</v>
@@ -5115,7 +5115,7 @@
         <v>0.43372</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5332</v>
+        <v>0.5335299999999999</v>
       </c>
       <c r="O58" t="n">
         <v>1836693</v>
@@ -5333,7 +5333,7 @@
         <v>1.375</v>
       </c>
       <c r="G61" t="n">
-        <v>1.84600535930136</v>
+        <v>1.83673809150675</v>
       </c>
       <c r="H61" t="n">
         <v>6</v>
@@ -5347,10 +5347,10 @@
         <v>1.975</v>
       </c>
       <c r="M61" t="n">
-        <v>3.05985</v>
+        <v>3.06986</v>
       </c>
       <c r="N61" t="n">
-        <v>4.03382</v>
+        <v>4.015</v>
       </c>
       <c r="O61" t="n">
         <v>1836693</v>
@@ -5414,7 +5414,7 @@
         <v>0.006</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0064945193123701</v>
+        <v>0.006504759234563</v>
       </c>
       <c r="H62" t="n">
         <v>0.032</v>
@@ -5425,7 +5425,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00396</v>
+        <v>0.00398</v>
       </c>
       <c r="M62" t="n">
         <v>0.008999999999999999</v>
@@ -5495,7 +5495,7 @@
         <v>0.006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0064945193123701</v>
+        <v>0.006504759234563</v>
       </c>
       <c r="H63" t="n">
         <v>0.032</v>
@@ -5506,7 +5506,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00396</v>
+        <v>0.00398</v>
       </c>
       <c r="M63" t="n">
         <v>0.008999999999999999</v>
@@ -5913,10 +5913,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.0025</v>
+        <v>0.00241</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0076400255211783</v>
+        <v>0.007619360196751</v>
       </c>
       <c r="H68" t="n">
         <v>0.0833484885654411</v>
@@ -5927,7 +5927,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00317</v>
+        <v>0.00313</v>
       </c>
       <c r="M68" t="n">
         <v>0.00957</v>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.0025</v>
+        <v>0.00241</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0076400255211783</v>
+        <v>0.007619360196751</v>
       </c>
       <c r="H69" t="n">
         <v>0.0833484885654411</v>
@@ -6008,7 +6008,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00317</v>
+        <v>0.00313</v>
       </c>
       <c r="M69" t="n">
         <v>0.00957</v>
@@ -6078,7 +6078,7 @@
         <v>0.1895</v>
       </c>
       <c r="G70" t="n">
-        <v>0.204914195784309</v>
+        <v>0.204856401197926</v>
       </c>
       <c r="H70" t="n">
         <v>0.65</v>
@@ -6159,7 +6159,7 @@
         <v>0.1895</v>
       </c>
       <c r="G71" t="n">
-        <v>0.204914195784309</v>
+        <v>0.204856401197926</v>
       </c>
       <c r="H71" t="n">
         <v>0.65</v>
@@ -6233,21 +6233,21 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="G72" t="n">
-        <v>0.236520833333333</v>
+        <v>0.236620833333333</v>
       </c>
       <c r="H72" t="n">
         <v>0.77</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5515</v>
+        <v>0.5519500000000001</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.0985</v>
+        <v>0.09875</v>
       </c>
       <c r="M72" t="n">
         <v>0.38618</v>
@@ -6310,21 +6310,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="G73" t="n">
-        <v>0.236520833333333</v>
+        <v>0.236620833333333</v>
       </c>
       <c r="H73" t="n">
         <v>0.77</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5515</v>
+        <v>0.5519500000000001</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.0985</v>
+        <v>0.09875</v>
       </c>
       <c r="M73" t="n">
         <v>0.38618</v>
@@ -6544,7 +6544,7 @@
         <v>0.017</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0254592560680194</v>
+        <v>0.0254690667717322</v>
       </c>
       <c r="H76" t="n">
         <v>0.144</v>
@@ -6621,7 +6621,7 @@
         <v>0.017</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0254592560680194</v>
+        <v>0.0254690667717322</v>
       </c>
       <c r="H77" t="n">
         <v>0.144</v>
@@ -6702,13 +6702,13 @@
         <v>1.47</v>
       </c>
       <c r="G78" t="n">
-        <v>1.83993576200605</v>
+        <v>1.82971144646041</v>
       </c>
       <c r="H78" t="n">
         <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>4.70807</v>
+        <v>4.7</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6716,10 +6716,10 @@
         <v>1.6</v>
       </c>
       <c r="M78" t="n">
-        <v>3.02435</v>
+        <v>3.02978</v>
       </c>
       <c r="N78" t="n">
-        <v>4.01667</v>
+        <v>3.872</v>
       </c>
       <c r="O78" t="n">
         <v>1836693</v>
@@ -6783,7 +6783,7 @@
         <v>0.006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0059328120430293</v>
+        <v>0.0059435279129331</v>
       </c>
       <c r="H79" t="n">
         <v>0.032</v>
@@ -6794,7 +6794,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00414</v>
+        <v>0.00416</v>
       </c>
       <c r="M79" t="n">
         <v>0.008</v>
@@ -6864,7 +6864,7 @@
         <v>0.006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0059328120430293</v>
+        <v>0.0059435279129331</v>
       </c>
       <c r="H80" t="n">
         <v>0.032</v>
@@ -6875,7 +6875,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00414</v>
+        <v>0.00416</v>
       </c>
       <c r="M80" t="n">
         <v>0.008</v>
@@ -7285,7 +7285,7 @@
         <v>0.0051</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0205080778883726</v>
+        <v>0.0204883990272835</v>
       </c>
       <c r="H85" t="n">
         <v>0.266939785767956</v>
@@ -7296,7 +7296,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00664</v>
+        <v>0.00653</v>
       </c>
       <c r="M85" t="n">
         <v>0.01842</v>
@@ -7366,7 +7366,7 @@
         <v>0.0051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0205080778883726</v>
+        <v>0.0204883990272835</v>
       </c>
       <c r="H86" t="n">
         <v>0.266939785767956</v>
@@ -7377,7 +7377,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00664</v>
+        <v>0.00653</v>
       </c>
       <c r="M86" t="n">
         <v>0.01842</v>
@@ -7447,7 +7447,7 @@
         <v>0.1855</v>
       </c>
       <c r="G87" t="n">
-        <v>0.17856408831772</v>
+        <v>0.178488017418503</v>
       </c>
       <c r="H87" t="n">
         <v>0.43</v>
@@ -7528,7 +7528,7 @@
         <v>0.1855</v>
       </c>
       <c r="G88" t="n">
-        <v>0.17856408831772</v>
+        <v>0.178488017418503</v>
       </c>
       <c r="H88" t="n">
         <v>0.43</v>
@@ -7602,16 +7602,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="G89" t="n">
-        <v>0.221</v>
+        <v>0.221079166666667</v>
       </c>
       <c r="H89" t="n">
         <v>0.77</v>
       </c>
       <c r="I89" t="n">
-        <v>0.522</v>
+        <v>0.52205</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7619,7 +7619,7 @@
         <v>0.095</v>
       </c>
       <c r="M89" t="n">
-        <v>0.33686</v>
+        <v>0.33719</v>
       </c>
       <c r="N89" t="n">
         <v>0.47396</v>
@@ -7679,16 +7679,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.206</v>
+        <v>0.2059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.221</v>
+        <v>0.221079166666667</v>
       </c>
       <c r="H90" t="n">
         <v>0.77</v>
       </c>
       <c r="I90" t="n">
-        <v>0.522</v>
+        <v>0.52205</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -7696,7 +7696,7 @@
         <v>0.095</v>
       </c>
       <c r="M90" t="n">
-        <v>0.33686</v>
+        <v>0.33719</v>
       </c>
       <c r="N90" t="n">
         <v>0.47396</v>
@@ -7913,7 +7913,7 @@
         <v>0.015</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0252581845482135</v>
+        <v>0.0252778884917312</v>
       </c>
       <c r="H93" t="n">
         <v>0.144</v>
@@ -7990,7 +7990,7 @@
         <v>0.015</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0252581845482135</v>
+        <v>0.0252778884917312</v>
       </c>
       <c r="H94" t="n">
         <v>0.144</v>
@@ -8071,13 +8071,13 @@
         <v>1.4</v>
       </c>
       <c r="G95" t="n">
-        <v>2.03147651964207</v>
+        <v>2.00337434906134</v>
       </c>
       <c r="H95" t="n">
-        <v>7.06587252321672</v>
+        <v>7.43745452080656</v>
       </c>
       <c r="I95" t="n">
-        <v>6.32649</v>
+        <v>6.14276</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -8085,10 +8085,10 @@
         <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>3.17961</v>
+        <v>3.18176</v>
       </c>
       <c r="N95" t="n">
-        <v>5.9</v>
+        <v>4.99237</v>
       </c>
       <c r="O95" t="n">
         <v>1836693</v>
@@ -8152,7 +8152,7 @@
         <v>0.006</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0058774553481234</v>
+        <v>0.0058868943271274</v>
       </c>
       <c r="H96" t="n">
         <v>0.032</v>
@@ -8233,7 +8233,7 @@
         <v>0.006</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0058774553481234</v>
+        <v>0.0058868943271274</v>
       </c>
       <c r="H97" t="n">
         <v>0.032</v>
@@ -8731,7 +8731,7 @@
         <v>0.00457</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0177169209360647</v>
+        <v>0.0177014589737804</v>
       </c>
       <c r="H103" t="n">
         <v>0.266939785767956</v>
@@ -8812,7 +8812,7 @@
         <v>0.00457</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0177169209360647</v>
+        <v>0.0177014589737804</v>
       </c>
       <c r="H104" t="n">
         <v>0.266939785767956</v>
@@ -8893,7 +8893,7 @@
         <v>0.173</v>
       </c>
       <c r="G105" t="n">
-        <v>0.164254707121467</v>
+        <v>0.164196893238062</v>
       </c>
       <c r="H105" t="n">
         <v>0.43</v>
@@ -8974,7 +8974,7 @@
         <v>0.173</v>
       </c>
       <c r="G106" t="n">
-        <v>0.164254707121467</v>
+        <v>0.164196893238062</v>
       </c>
       <c r="H106" t="n">
         <v>0.43</v>
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.192</v>
+        <v>0.19225</v>
       </c>
       <c r="G107" t="n">
-        <v>0.202683333333333</v>
+        <v>0.202726666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0.77</v>
@@ -9065,7 +9065,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3193</v>
+        <v>0.31945</v>
       </c>
       <c r="N107" t="n">
         <v>0.4367</v>
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.192</v>
+        <v>0.19225</v>
       </c>
       <c r="G108" t="n">
-        <v>0.202683333333333</v>
+        <v>0.202726666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0.77</v>
@@ -9142,7 +9142,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3193</v>
+        <v>0.31945</v>
       </c>
       <c r="N108" t="n">
         <v>0.4367</v>
@@ -9359,7 +9359,7 @@
         <v>0.015</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0232232143052374</v>
+        <v>0.0232389774600516</v>
       </c>
       <c r="H111" t="n">
         <v>0.144</v>
@@ -9436,7 +9436,7 @@
         <v>0.015</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0232232143052374</v>
+        <v>0.0232389774600516</v>
       </c>
       <c r="H112" t="n">
         <v>0.144</v>
@@ -9594,13 +9594,13 @@
         <v>1.525</v>
       </c>
       <c r="G114" t="n">
-        <v>2.05399789466847</v>
+        <v>2.04562737044675</v>
       </c>
       <c r="H114" t="n">
-        <v>7.06587252321672</v>
+        <v>7.43745452080656</v>
       </c>
       <c r="I114" t="n">
-        <v>6.38144</v>
+        <v>5.74739</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9608,10 +9608,10 @@
         <v>1.4</v>
       </c>
       <c r="M114" t="n">
-        <v>3.01775</v>
+        <v>3.14052</v>
       </c>
       <c r="N114" t="n">
-        <v>4.70028</v>
+        <v>4.04205</v>
       </c>
       <c r="O114" t="n">
         <v>1836693</v>
@@ -9675,7 +9675,7 @@
         <v>0.006</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0055662901480401</v>
+        <v>0.0055743495178461</v>
       </c>
       <c r="H115" t="n">
         <v>0.012</v>
@@ -9756,7 +9756,7 @@
         <v>0.006</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0055662901480401</v>
+        <v>0.0055743495178461</v>
       </c>
       <c r="H116" t="n">
         <v>0.012</v>
@@ -10254,7 +10254,7 @@
         <v>0.00497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0170635807995654</v>
+        <v>0.0170509151678587</v>
       </c>
       <c r="H122" t="n">
         <v>0.266939785767956</v>
@@ -10335,7 +10335,7 @@
         <v>0.00497</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0170635807995654</v>
+        <v>0.0170509151678587</v>
       </c>
       <c r="H123" t="n">
         <v>0.266939785767956</v>
@@ -10416,7 +10416,7 @@
         <v>0.14825</v>
       </c>
       <c r="G124" t="n">
-        <v>0.154558922601223</v>
+        <v>0.154510744365052</v>
       </c>
       <c r="H124" t="n">
         <v>0.43</v>
@@ -10497,7 +10497,7 @@
         <v>0.14825</v>
       </c>
       <c r="G125" t="n">
-        <v>0.154558922601223</v>
+        <v>0.154510744365052</v>
       </c>
       <c r="H125" t="n">
         <v>0.43</v>
@@ -10651,7 +10651,7 @@
         <v>0.167</v>
       </c>
       <c r="G127" t="n">
-        <v>0.16895</v>
+        <v>0.168973333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0.437</v>
@@ -10662,13 +10662,13 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.067</v>
+        <v>0.06695</v>
       </c>
       <c r="M127" t="n">
         <v>0.2931</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3473</v>
+        <v>0.34745</v>
       </c>
       <c r="O127" t="n">
         <v>1836693</v>
@@ -10728,7 +10728,7 @@
         <v>0.167</v>
       </c>
       <c r="G128" t="n">
-        <v>0.16895</v>
+        <v>0.168973333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0.437</v>
@@ -10739,13 +10739,13 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.067</v>
+        <v>0.06695</v>
       </c>
       <c r="M128" t="n">
         <v>0.2931</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3473</v>
+        <v>0.34745</v>
       </c>
       <c r="O128" t="n">
         <v>1836693</v>
@@ -10959,7 +10959,7 @@
         <v>0.012</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0201232143052374</v>
+        <v>0.0201389774600516</v>
       </c>
       <c r="H131" t="n">
         <v>0.144</v>
@@ -11036,7 +11036,7 @@
         <v>0.012</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0201232143052374</v>
+        <v>0.0201389774600516</v>
       </c>
       <c r="H132" t="n">
         <v>0.144</v>
@@ -11194,13 +11194,13 @@
         <v>1.525</v>
       </c>
       <c r="G134" t="n">
-        <v>2.02827714178463</v>
+        <v>2.05272475859235</v>
       </c>
       <c r="H134" t="n">
-        <v>7.06587252321672</v>
+        <v>7.43745452080656</v>
       </c>
       <c r="I134" t="n">
-        <v>6.44738</v>
+        <v>6.24158</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -11208,10 +11208,10 @@
         <v>1.3</v>
       </c>
       <c r="M134" t="n">
-        <v>3.01825</v>
+        <v>3.14229</v>
       </c>
       <c r="N134" t="n">
-        <v>5.5958</v>
+        <v>4.64663</v>
       </c>
       <c r="O134" t="n">
         <v>1836693</v>
@@ -11275,7 +11275,7 @@
         <v>0.006</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0058077078153113</v>
+        <v>0.0058143356008023</v>
       </c>
       <c r="H135" t="n">
         <v>0.012</v>
@@ -11356,7 +11356,7 @@
         <v>0.006</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0058077078153113</v>
+        <v>0.0058143356008023</v>
       </c>
       <c r="H136" t="n">
         <v>0.012</v>
@@ -11854,7 +11854,7 @@
         <v>0.00422</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0169724968014704</v>
+        <v>0.0169701188758084</v>
       </c>
       <c r="H142" t="n">
         <v>0.266939785767956</v>
@@ -11865,7 +11865,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00341</v>
+        <v>0.0034</v>
       </c>
       <c r="M142" t="n">
         <v>0.01722</v>
@@ -11935,7 +11935,7 @@
         <v>0.00422</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0169724968014704</v>
+        <v>0.0169701188758084</v>
       </c>
       <c r="H143" t="n">
         <v>0.266939785767956</v>
@@ -11946,7 +11946,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00341</v>
+        <v>0.0034</v>
       </c>
       <c r="M143" t="n">
         <v>0.01722</v>
@@ -12016,7 +12016,7 @@
         <v>0.14825</v>
       </c>
       <c r="G144" t="n">
-        <v>0.152426598604493</v>
+        <v>0.152415023606365</v>
       </c>
       <c r="H144" t="n">
         <v>0.43</v>
@@ -12097,7 +12097,7 @@
         <v>0.14825</v>
       </c>
       <c r="G145" t="n">
-        <v>0.152426598604493</v>
+        <v>0.152415023606365</v>
       </c>
       <c r="H145" t="n">
         <v>0.43</v>
@@ -12248,10 +12248,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.165</v>
+        <v>0.16515</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1691</v>
+        <v>0.169071666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0.437</v>
@@ -12262,13 +12262,13 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.059</v>
+        <v>0.05905</v>
       </c>
       <c r="M147" t="n">
-        <v>0.2939</v>
+        <v>0.29373</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3431</v>
+        <v>0.34346</v>
       </c>
       <c r="O147" t="n">
         <v>1836693</v>
@@ -12325,10 +12325,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.165</v>
+        <v>0.16515</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1691</v>
+        <v>0.169071666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0.437</v>
@@ -12339,13 +12339,13 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.059</v>
+        <v>0.05905</v>
       </c>
       <c r="M148" t="n">
-        <v>0.2939</v>
+        <v>0.29373</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3431</v>
+        <v>0.34346</v>
       </c>
       <c r="O148" t="n">
         <v>1836693</v>
@@ -12559,7 +12559,7 @@
         <v>0.0115</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0346315476385708</v>
+        <v>0.034647310793385</v>
       </c>
       <c r="H151" t="n">
         <v>0.703</v>
@@ -12636,7 +12636,7 @@
         <v>0.0115</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0346315476385708</v>
+        <v>0.034647310793385</v>
       </c>
       <c r="H152" t="n">
         <v>0.703</v>
@@ -12791,16 +12791,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.99839</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>2.13749603164957</v>
+        <v>2.15957480335188</v>
       </c>
       <c r="H154" t="n">
-        <v>7.06587252321672</v>
+        <v>7.43745452080656</v>
       </c>
       <c r="I154" t="n">
-        <v>6.41441</v>
+        <v>5.99449</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -12808,10 +12808,10 @@
         <v>2.16</v>
       </c>
       <c r="M154" t="n">
-        <v>3.2452</v>
+        <v>3.3568</v>
       </c>
       <c r="N154" t="n">
-        <v>5.32783</v>
+        <v>4.60002</v>
       </c>
       <c r="O154" t="n">
         <v>1836693</v>
@@ -12875,7 +12875,7 @@
         <v>0.006</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0061036638503718</v>
+        <v>0.0061088610706936</v>
       </c>
       <c r="H155" t="n">
         <v>0.012</v>
@@ -12956,7 +12956,7 @@
         <v>0.006</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0061036638503718</v>
+        <v>0.0061088610706936</v>
       </c>
       <c r="H156" t="n">
         <v>0.012</v>
@@ -13451,10 +13451,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.0032</v>
+        <v>0.00319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0149711005016666</v>
+        <v>0.0149702404068113</v>
       </c>
       <c r="H162" t="n">
         <v>0.266939785767956</v>
@@ -13532,10 +13532,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.0032</v>
+        <v>0.00319</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0149711005016666</v>
+        <v>0.0149702404068113</v>
       </c>
       <c r="H163" t="n">
         <v>0.266939785767956</v>
@@ -13616,7 +13616,7 @@
         <v>0.155</v>
       </c>
       <c r="G164" t="n">
-        <v>0.165659931937827</v>
+        <v>0.165648356939699</v>
       </c>
       <c r="H164" t="n">
         <v>0.552</v>
@@ -13697,7 +13697,7 @@
         <v>0.155</v>
       </c>
       <c r="G165" t="n">
-        <v>0.165659931937827</v>
+        <v>0.165648356939699</v>
       </c>
       <c r="H165" t="n">
         <v>0.552</v>
@@ -13851,7 +13851,7 @@
         <v>0.1675</v>
       </c>
       <c r="G167" t="n">
-        <v>0.181266666666667</v>
+        <v>0.18123</v>
       </c>
       <c r="H167" t="n">
         <v>0.555</v>
@@ -13865,10 +13865,10 @@
         <v>0.055</v>
       </c>
       <c r="M167" t="n">
-        <v>0.2966</v>
+        <v>0.29653</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3455</v>
+        <v>0.34571</v>
       </c>
       <c r="O167" t="n">
         <v>1836693</v>
@@ -13928,7 +13928,7 @@
         <v>0.1675</v>
       </c>
       <c r="G168" t="n">
-        <v>0.181266666666667</v>
+        <v>0.18123</v>
       </c>
       <c r="H168" t="n">
         <v>0.555</v>
@@ -13942,10 +13942,10 @@
         <v>0.055</v>
       </c>
       <c r="M168" t="n">
-        <v>0.2966</v>
+        <v>0.29653</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3455</v>
+        <v>0.34571</v>
       </c>
       <c r="O168" t="n">
         <v>1836693</v>
@@ -14159,7 +14159,7 @@
         <v>0.0115</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0322301303852889</v>
+        <v>0.0322382084888614</v>
       </c>
       <c r="H171" t="n">
         <v>0.703</v>
@@ -14236,7 +14236,7 @@
         <v>0.0115</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0322301303852889</v>
+        <v>0.0322382084888614</v>
       </c>
       <c r="H172" t="n">
         <v>0.703</v>
@@ -14394,13 +14394,13 @@
         <v>1.885</v>
       </c>
       <c r="G174" t="n">
-        <v>1.99041317073891</v>
+        <v>2.00986351723856</v>
       </c>
       <c r="H174" t="n">
-        <v>7.06587252321672</v>
+        <v>7.43745452080656</v>
       </c>
       <c r="I174" t="n">
-        <v>6.35946</v>
+        <v>5.58266</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -14408,10 +14408,10 @@
         <v>1.735</v>
       </c>
       <c r="M174" t="n">
-        <v>3.09543</v>
+        <v>3.2632</v>
       </c>
       <c r="N174" t="n">
-        <v>4.50722</v>
+        <v>4.31852</v>
       </c>
       <c r="O174" t="n">
         <v>1836693</v>
@@ -14475,7 +14475,7 @@
         <v>0.007</v>
       </c>
       <c r="G175" t="n">
-        <v>0.006884636239735</v>
+        <v>0.0068876323595968</v>
       </c>
       <c r="H175" t="n">
         <v>0.015</v>
@@ -14556,7 +14556,7 @@
         <v>0.007</v>
       </c>
       <c r="G176" t="n">
-        <v>0.006884636239735</v>
+        <v>0.0068876323595968</v>
       </c>
       <c r="H176" t="n">
         <v>0.015</v>
@@ -15054,7 +15054,7 @@
         <v>0.00207</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0056579101457338</v>
+        <v>0.0056572520500007</v>
       </c>
       <c r="H182" t="n">
         <v>0.0357517143834537</v>
@@ -15135,7 +15135,7 @@
         <v>0.00207</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0056579101457338</v>
+        <v>0.0056572520500007</v>
       </c>
       <c r="H183" t="n">
         <v>0.0357517143834537</v>
@@ -15451,7 +15451,7 @@
         <v>0.1775</v>
       </c>
       <c r="G187" t="n">
-        <v>0.194216666666667</v>
+        <v>0.19418</v>
       </c>
       <c r="H187" t="n">
         <v>0.555</v>
@@ -15465,7 +15465,7 @@
         <v>0.055</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2987</v>
+        <v>0.29863</v>
       </c>
       <c r="N187" t="n">
         <v>0.4271</v>
@@ -15528,7 +15528,7 @@
         <v>0.1775</v>
       </c>
       <c r="G188" t="n">
-        <v>0.194216666666667</v>
+        <v>0.19418</v>
       </c>
       <c r="H188" t="n">
         <v>0.555</v>
@@ -15542,7 +15542,7 @@
         <v>0.055</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2987</v>
+        <v>0.29863</v>
       </c>
       <c r="N188" t="n">
         <v>0.4271</v>
@@ -15994,7 +15994,7 @@
         <v>1.85</v>
       </c>
       <c r="G194" t="n">
-        <v>1.73539104931909</v>
+        <v>1.77346742419632</v>
       </c>
       <c r="H194" t="n">
         <v>4.48</v>
@@ -16008,10 +16008,10 @@
         <v>2.07</v>
       </c>
       <c r="M194" t="n">
-        <v>3.0803</v>
+        <v>3.16458</v>
       </c>
       <c r="N194" t="n">
-        <v>3.412</v>
+        <v>3.63977</v>
       </c>
       <c r="O194" t="n">
         <v>1836693</v>
@@ -16075,7 +16075,7 @@
         <v>0.007</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0069470487666715</v>
+        <v>0.0069508467967531</v>
       </c>
       <c r="H195" t="n">
         <v>0.015</v>
@@ -16156,7 +16156,7 @@
         <v>0.007</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0069470487666715</v>
+        <v>0.0069508467967531</v>
       </c>
       <c r="H196" t="n">
         <v>0.015</v>
@@ -16237,7 +16237,7 @@
         <v>190</v>
       </c>
       <c r="G197" t="n">
-        <v>662.263224671737</v>
+        <v>662.264826755578</v>
       </c>
       <c r="H197" t="n">
         <v>9900</v>
@@ -16322,7 +16322,7 @@
         <v>190</v>
       </c>
       <c r="G198" t="n">
-        <v>662.263224671737</v>
+        <v>662.264826755578</v>
       </c>
       <c r="H198" t="n">
         <v>9900</v>
@@ -16407,7 +16407,7 @@
         <v>190</v>
       </c>
       <c r="G199" t="n">
-        <v>662.263224671737</v>
+        <v>662.264826755578</v>
       </c>
       <c r="H199" t="n">
         <v>9900</v>
@@ -16492,7 +16492,7 @@
         <v>190</v>
       </c>
       <c r="G200" t="n">
-        <v>662.263224671737</v>
+        <v>662.264826755578</v>
       </c>
       <c r="H200" t="n">
         <v>9900</v>
@@ -16654,7 +16654,7 @@
         <v>0.00223</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0052466608867247</v>
+        <v>0.0052475943077623</v>
       </c>
       <c r="H202" t="n">
         <v>0.0295727229272706</v>
@@ -16735,7 +16735,7 @@
         <v>0.00223</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0052466608867247</v>
+        <v>0.0052475943077623</v>
       </c>
       <c r="H203" t="n">
         <v>0.0295727229272706</v>
@@ -17051,7 +17051,7 @@
         <v>0.2</v>
       </c>
       <c r="G207" t="n">
-        <v>0.207416666666667</v>
+        <v>0.2074</v>
       </c>
       <c r="H207" t="n">
         <v>0.555</v>
@@ -17128,7 +17128,7 @@
         <v>0.2</v>
       </c>
       <c r="G208" t="n">
-        <v>0.207416666666667</v>
+        <v>0.2074</v>
       </c>
       <c r="H208" t="n">
         <v>0.555</v>
@@ -17594,7 +17594,7 @@
         <v>1.632</v>
       </c>
       <c r="G214" t="n">
-        <v>1.62664788755552</v>
+        <v>1.64269383974587</v>
       </c>
       <c r="H214" t="n">
         <v>4.48</v>
@@ -17675,7 +17675,7 @@
         <v>0.007</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0070656618391008</v>
+        <v>0.0070699436384565</v>
       </c>
       <c r="H215" t="n">
         <v>0.015</v>
@@ -17756,7 +17756,7 @@
         <v>0.007</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0070656618391008</v>
+        <v>0.0070699436384565</v>
       </c>
       <c r="H216" t="n">
         <v>0.015</v>
@@ -17837,7 +17837,7 @@
         <v>210</v>
       </c>
       <c r="G217" t="n">
-        <v>705.318533564479</v>
+        <v>705.320162802283</v>
       </c>
       <c r="H217" t="n">
         <v>9900</v>
@@ -17922,7 +17922,7 @@
         <v>210</v>
       </c>
       <c r="G218" t="n">
-        <v>705.318533564479</v>
+        <v>705.320162802283</v>
       </c>
       <c r="H218" t="n">
         <v>9900</v>
@@ -18007,7 +18007,7 @@
         <v>210</v>
       </c>
       <c r="G219" t="n">
-        <v>705.318533564479</v>
+        <v>705.320162802283</v>
       </c>
       <c r="H219" t="n">
         <v>9900</v>
@@ -18092,7 +18092,7 @@
         <v>210</v>
       </c>
       <c r="G220" t="n">
-        <v>705.318533564479</v>
+        <v>705.320162802283</v>
       </c>
       <c r="H220" t="n">
         <v>9900</v>
@@ -18251,10 +18251,10 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0.00299</v>
+        <v>0.003</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0046542666784749</v>
+        <v>0.0046591584160414</v>
       </c>
       <c r="H222" t="n">
         <v>0.0178061590981611</v>
@@ -18332,10 +18332,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.00299</v>
+        <v>0.003</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0046542666784749</v>
+        <v>0.0046591584160414</v>
       </c>
       <c r="H223" t="n">
         <v>0.0178061590981611</v>
@@ -18651,7 +18651,7 @@
         <v>0.205</v>
       </c>
       <c r="G227" t="n">
-        <v>0.228237288135593</v>
+        <v>0.228227118644068</v>
       </c>
       <c r="H227" t="n">
         <v>0.655</v>
@@ -18665,7 +18665,7 @@
         <v>0.06</v>
       </c>
       <c r="M227" t="n">
-        <v>0.34205</v>
+        <v>0.34219</v>
       </c>
       <c r="N227" t="n">
         <v>0.4928</v>
@@ -18728,7 +18728,7 @@
         <v>0.205</v>
       </c>
       <c r="G228" t="n">
-        <v>0.228237288135593</v>
+        <v>0.228227118644068</v>
       </c>
       <c r="H228" t="n">
         <v>0.655</v>
@@ -18742,7 +18742,7 @@
         <v>0.06</v>
       </c>
       <c r="M228" t="n">
-        <v>0.34205</v>
+        <v>0.34219</v>
       </c>
       <c r="N228" t="n">
         <v>0.4928</v>
@@ -19275,7 +19275,7 @@
         <v>0.007</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0065821903645034</v>
+        <v>0.0065856583462651</v>
       </c>
       <c r="H235" t="n">
         <v>0.015</v>
@@ -19356,7 +19356,7 @@
         <v>0.007</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0065821903645034</v>
+        <v>0.0065856583462651</v>
       </c>
       <c r="H236" t="n">
         <v>0.015</v>
@@ -19437,7 +19437,7 @@
         <v>240</v>
       </c>
       <c r="G237" t="n">
-        <v>754.324025522487</v>
+        <v>754.325682850598</v>
       </c>
       <c r="H237" t="n">
         <v>9900</v>
@@ -19522,7 +19522,7 @@
         <v>240</v>
       </c>
       <c r="G238" t="n">
-        <v>754.324025522487</v>
+        <v>754.325682850598</v>
       </c>
       <c r="H238" t="n">
         <v>9900</v>
@@ -19607,7 +19607,7 @@
         <v>240</v>
       </c>
       <c r="G239" t="n">
-        <v>754.324025522487</v>
+        <v>754.325682850598</v>
       </c>
       <c r="H239" t="n">
         <v>9900</v>
@@ -19692,7 +19692,7 @@
         <v>240</v>
       </c>
       <c r="G240" t="n">
-        <v>754.324025522487</v>
+        <v>754.325682850598</v>
       </c>
       <c r="H240" t="n">
         <v>9900</v>
@@ -19854,7 +19854,7 @@
         <v>0.00306</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0043219474998174</v>
+        <v>0.0043271121200941</v>
       </c>
       <c r="H242" t="n">
         <v>0.0170867191773095</v>
@@ -19868,10 +19868,10 @@
         <v>0.00377</v>
       </c>
       <c r="M242" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01018</v>
+        <v>0.01022</v>
       </c>
       <c r="O242" t="n">
         <v>1836693</v>
@@ -19935,7 +19935,7 @@
         <v>0.00306</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0043219474998174</v>
+        <v>0.0043271121200941</v>
       </c>
       <c r="H243" t="n">
         <v>0.0170867191773095</v>
@@ -19949,10 +19949,10 @@
         <v>0.00377</v>
       </c>
       <c r="M243" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01018</v>
+        <v>0.01022</v>
       </c>
       <c r="O243" t="n">
         <v>1836693</v>
@@ -20251,7 +20251,7 @@
         <v>0.1775</v>
       </c>
       <c r="G247" t="n">
-        <v>0.221931034482759</v>
+        <v>0.221939655172414</v>
       </c>
       <c r="H247" t="n">
         <v>0.655</v>
@@ -20328,7 +20328,7 @@
         <v>0.1775</v>
       </c>
       <c r="G248" t="n">
-        <v>0.221931034482759</v>
+        <v>0.221939655172414</v>
       </c>
       <c r="H248" t="n">
         <v>0.655</v>
@@ -20875,7 +20875,7 @@
         <v>0.006</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0062011761542215</v>
+        <v>0.0062033284982755</v>
       </c>
       <c r="H255" t="n">
         <v>0.015</v>
@@ -20956,7 +20956,7 @@
         <v>0.006</v>
       </c>
       <c r="G256" t="n">
-        <v>0.0062011761542215</v>
+        <v>0.0062033284982755</v>
       </c>
       <c r="H256" t="n">
         <v>0.015</v>
@@ -21037,7 +21037,7 @@
         <v>325</v>
       </c>
       <c r="G257" t="n">
-        <v>1564.22057724662</v>
+        <v>1564.22223457474</v>
       </c>
       <c r="H257" t="n">
         <v>39000</v>
@@ -21122,7 +21122,7 @@
         <v>325</v>
       </c>
       <c r="G258" t="n">
-        <v>1564.22057724662</v>
+        <v>1564.22223457474</v>
       </c>
       <c r="H258" t="n">
         <v>39000</v>
@@ -21207,7 +21207,7 @@
         <v>325</v>
       </c>
       <c r="G259" t="n">
-        <v>1564.22057724662</v>
+        <v>1564.22223457474</v>
       </c>
       <c r="H259" t="n">
         <v>39000</v>
@@ -21292,7 +21292,7 @@
         <v>325</v>
       </c>
       <c r="G260" t="n">
-        <v>1564.22057724662</v>
+        <v>1564.22223457474</v>
       </c>
       <c r="H260" t="n">
         <v>39000</v>
@@ -21454,24 +21454,24 @@
         <v>0.00301</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0041589800924297</v>
+        <v>0.0041642341702165</v>
       </c>
       <c r="H262" t="n">
         <v>0.0170867191773095</v>
       </c>
       <c r="I262" t="n">
-        <v>0.01045</v>
+        <v>0.01046</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
-        <v>0.00449</v>
+        <v>0.00452</v>
       </c>
       <c r="M262" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N262" t="n">
-        <v>0.00984</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="O262" t="n">
         <v>1836693</v>
@@ -21535,24 +21535,24 @@
         <v>0.00301</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0041589800924297</v>
+        <v>0.0041642341702165</v>
       </c>
       <c r="H263" t="n">
         <v>0.0170867191773095</v>
       </c>
       <c r="I263" t="n">
-        <v>0.01045</v>
+        <v>0.01046</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>0.00449</v>
+        <v>0.00452</v>
       </c>
       <c r="M263" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N263" t="n">
-        <v>0.00984</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="O263" t="n">
         <v>1836693</v>
@@ -22475,7 +22475,7 @@
         <v>0.006</v>
       </c>
       <c r="G275" t="n">
-        <v>0.005977038223187</v>
+        <v>0.005979190567241</v>
       </c>
       <c r="H275" t="n">
         <v>0.012</v>
@@ -22556,7 +22556,7 @@
         <v>0.006</v>
       </c>
       <c r="G276" t="n">
-        <v>0.005977038223187</v>
+        <v>0.005979190567241</v>
       </c>
       <c r="H276" t="n">
         <v>0.012</v>
@@ -22637,7 +22637,7 @@
         <v>347.5</v>
       </c>
       <c r="G277" t="n">
-        <v>1777.32402552249</v>
+        <v>1777.3256828506</v>
       </c>
       <c r="H277" t="n">
         <v>39000</v>
@@ -22722,7 +22722,7 @@
         <v>347.5</v>
       </c>
       <c r="G278" t="n">
-        <v>1777.32402552249</v>
+        <v>1777.3256828506</v>
       </c>
       <c r="H278" t="n">
         <v>39000</v>
@@ -22807,7 +22807,7 @@
         <v>347.5</v>
       </c>
       <c r="G279" t="n">
-        <v>1777.32402552249</v>
+        <v>1777.3256828506</v>
       </c>
       <c r="H279" t="n">
         <v>39000</v>
@@ -22892,7 +22892,7 @@
         <v>347.5</v>
       </c>
       <c r="G280" t="n">
-        <v>1777.32402552249</v>
+        <v>1777.3256828506</v>
       </c>
       <c r="H280" t="n">
         <v>39000</v>
@@ -23051,27 +23051,27 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="G282" t="n">
-        <v>0.0044117822701139</v>
+        <v>0.0044164036182341</v>
       </c>
       <c r="H282" t="n">
         <v>0.0170867191773095</v>
       </c>
       <c r="I282" t="n">
-        <v>0.01045</v>
+        <v>0.01046</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
-        <v>0.00572</v>
+        <v>0.00574</v>
       </c>
       <c r="M282" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N282" t="n">
-        <v>0.00984</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="O282" t="n">
         <v>1836693</v>
@@ -23132,27 +23132,27 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="G283" t="n">
-        <v>0.0044117822701139</v>
+        <v>0.0044164036182341</v>
       </c>
       <c r="H283" t="n">
         <v>0.0170867191773095</v>
       </c>
       <c r="I283" t="n">
-        <v>0.01045</v>
+        <v>0.01046</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
-        <v>0.00572</v>
+        <v>0.00574</v>
       </c>
       <c r="M283" t="n">
-        <v>0.00704</v>
+        <v>0.00705</v>
       </c>
       <c r="N283" t="n">
-        <v>0.00984</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="O283" t="n">
         <v>1836693</v>
@@ -23451,7 +23451,7 @@
         <v>0.1305</v>
       </c>
       <c r="G287" t="n">
-        <v>0.196758620689655</v>
+        <v>0.19676724137931</v>
       </c>
       <c r="H287" t="n">
         <v>0.655</v>
@@ -23528,7 +23528,7 @@
         <v>0.1305</v>
       </c>
       <c r="G288" t="n">
-        <v>0.196758620689655</v>
+        <v>0.19676724137931</v>
       </c>
       <c r="H288" t="n">
         <v>0.655</v>
@@ -23887,6 +23887,1606 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.47125</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1.80666666666667</v>
+      </c>
+      <c r="H294" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M294" t="n">
+        <v>3</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0057771701183404</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0057771701183404</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1650.39655172414</v>
+      </c>
+      <c r="H297" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I297" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J297" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K297" t="n">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="L297" t="n">
+        <v>700</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1654.24</v>
+      </c>
+      <c r="N297" t="n">
+        <v>4794</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1650.39655172414</v>
+      </c>
+      <c r="H298" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I298" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J298" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K298" t="n">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="L298" t="n">
+        <v>700</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1654.24</v>
+      </c>
+      <c r="N298" t="n">
+        <v>4794</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1650.39655172414</v>
+      </c>
+      <c r="H299" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I299" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J299" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K299" t="n">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="L299" t="n">
+        <v>700</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1654.24</v>
+      </c>
+      <c r="N299" t="n">
+        <v>4794</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1650.39655172414</v>
+      </c>
+      <c r="H300" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I300" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J300" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K300" t="n">
+        <v>56.8965517241379</v>
+      </c>
+      <c r="L300" t="n">
+        <v>700</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1654.24</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4794</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G301" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="H301" t="n">
+        <v>108</v>
+      </c>
+      <c r="I301" t="n">
+        <v>108</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="M301" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="N301" t="n">
+        <v>108</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0054420890367735</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.01267</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0.00574</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.00722</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.01054</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0054420890367735</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.01267</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>0.00574</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.00722</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.01054</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.176948275862069</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.5148</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.35492</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.43464</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.176948275862069</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.5148</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.35492</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.43464</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>5.647</v>
+      </c>
+      <c r="G306" t="n">
+        <v>5.7014</v>
+      </c>
+      <c r="H306" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="I306" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>5.815</v>
+      </c>
+      <c r="M306" t="n">
+        <v>6.8645</v>
+      </c>
+      <c r="N306" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.185525862068966</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.36248</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.44262</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.185525862068966</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.36248</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.44262</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.310344827586207</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.4864</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.5844</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.310344827586207</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.4864</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0.5844</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.043051724137931</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.1708</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.07063999999999999</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.16248</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.043051724137931</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.1708</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.07063999999999999</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.16248</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
+++ b/state_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
@@ -4118,7 +4118,7 @@
         <v>1.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1.96932906028255</v>
+        <v>1.96424087510107</v>
       </c>
       <c r="H46" t="n">
         <v>6</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5715</v>
+        <v>3.46443</v>
       </c>
       <c r="N46" t="n">
         <v>4.718</v>
@@ -5333,7 +5333,7 @@
         <v>1.375</v>
       </c>
       <c r="G61" t="n">
-        <v>1.83673809150675</v>
+        <v>1.8076684594859</v>
       </c>
       <c r="H61" t="n">
         <v>6</v>
@@ -5347,7 +5347,7 @@
         <v>1.975</v>
       </c>
       <c r="M61" t="n">
-        <v>3.06986</v>
+        <v>3.035</v>
       </c>
       <c r="N61" t="n">
         <v>4.015</v>
@@ -6702,7 +6702,7 @@
         <v>1.47</v>
       </c>
       <c r="G78" t="n">
-        <v>1.82971144646041</v>
+        <v>1.79741185532614</v>
       </c>
       <c r="H78" t="n">
         <v>6</v>
@@ -6716,10 +6716,10 @@
         <v>1.6</v>
       </c>
       <c r="M78" t="n">
-        <v>3.02978</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>3.872</v>
+        <v>3.78885</v>
       </c>
       <c r="O78" t="n">
         <v>1836693</v>
@@ -8071,13 +8071,13 @@
         <v>1.4</v>
       </c>
       <c r="G95" t="n">
-        <v>2.00337434906134</v>
+        <v>1.93982130329978</v>
       </c>
       <c r="H95" t="n">
-        <v>7.43745452080656</v>
+        <v>6.52304632590623</v>
       </c>
       <c r="I95" t="n">
-        <v>6.14276</v>
+        <v>5.7067</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -8085,10 +8085,10 @@
         <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>3.18176</v>
+        <v>3.17</v>
       </c>
       <c r="N95" t="n">
-        <v>4.99237</v>
+        <v>5.09284</v>
       </c>
       <c r="O95" t="n">
         <v>1836693</v>
@@ -9594,13 +9594,13 @@
         <v>1.525</v>
       </c>
       <c r="G114" t="n">
-        <v>2.04562737044675</v>
+        <v>1.97598406745701</v>
       </c>
       <c r="H114" t="n">
-        <v>7.43745452080656</v>
+        <v>6.52304632590623</v>
       </c>
       <c r="I114" t="n">
-        <v>5.74739</v>
+        <v>5.35604</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9608,10 +9608,10 @@
         <v>1.4</v>
       </c>
       <c r="M114" t="n">
-        <v>3.14052</v>
+        <v>3.14</v>
       </c>
       <c r="N114" t="n">
-        <v>4.04205</v>
+        <v>4.01804</v>
       </c>
       <c r="O114" t="n">
         <v>1836693</v>
@@ -11191,16 +11191,16 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.525</v>
+        <v>1.49</v>
       </c>
       <c r="G134" t="n">
-        <v>2.05272475859235</v>
+        <v>1.93168153497352</v>
       </c>
       <c r="H134" t="n">
-        <v>7.43745452080656</v>
+        <v>6.52304632590623</v>
       </c>
       <c r="I134" t="n">
-        <v>6.24158</v>
+        <v>5.50778</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -11208,10 +11208,10 @@
         <v>1.3</v>
       </c>
       <c r="M134" t="n">
-        <v>3.14229</v>
+        <v>3.144</v>
       </c>
       <c r="N134" t="n">
-        <v>4.64663</v>
+        <v>4.76212</v>
       </c>
       <c r="O134" t="n">
         <v>1836693</v>
@@ -12791,16 +12791,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G154" t="n">
-        <v>2.15957480335188</v>
+        <v>2.07385922808135</v>
       </c>
       <c r="H154" t="n">
-        <v>7.43745452080656</v>
+        <v>6.52304632590623</v>
       </c>
       <c r="I154" t="n">
-        <v>5.99449</v>
+        <v>5.43191</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -12808,10 +12808,10 @@
         <v>2.16</v>
       </c>
       <c r="M154" t="n">
-        <v>3.3568</v>
+        <v>3.36668</v>
       </c>
       <c r="N154" t="n">
-        <v>4.60002</v>
+        <v>4.6969</v>
       </c>
       <c r="O154" t="n">
         <v>1836693</v>
@@ -14391,16 +14391,16 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1.885</v>
+        <v>1.72</v>
       </c>
       <c r="G174" t="n">
-        <v>2.00986351723856</v>
+        <v>1.93435217711928</v>
       </c>
       <c r="H174" t="n">
-        <v>7.43745452080656</v>
+        <v>6.52304632590623</v>
       </c>
       <c r="I174" t="n">
-        <v>5.58266</v>
+        <v>5.30547</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -14408,10 +14408,10 @@
         <v>1.735</v>
       </c>
       <c r="M174" t="n">
-        <v>3.2632</v>
+        <v>3.3445</v>
       </c>
       <c r="N174" t="n">
-        <v>4.31852</v>
+        <v>4.34364</v>
       </c>
       <c r="O174" t="n">
         <v>1836693</v>
@@ -15991,10 +15991,10 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G194" t="n">
-        <v>1.77346742419632</v>
+        <v>1.74070354627246</v>
       </c>
       <c r="H194" t="n">
         <v>4.48</v>
@@ -16008,10 +16008,10 @@
         <v>2.07</v>
       </c>
       <c r="M194" t="n">
-        <v>3.16458</v>
+        <v>3.2095</v>
       </c>
       <c r="N194" t="n">
-        <v>3.63977</v>
+        <v>3.53969</v>
       </c>
       <c r="O194" t="n">
         <v>1836693</v>
@@ -17591,10 +17591,10 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1.632</v>
+        <v>1.6</v>
       </c>
       <c r="G214" t="n">
-        <v>1.64269383974587</v>
+        <v>1.61172325082079</v>
       </c>
       <c r="H214" t="n">
         <v>4.48</v>
